--- a/BlackjackAI.xlsx
+++ b/BlackjackAI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Jokers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6743C-91C8-4E5C-8E04-76CFF84274F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3216AF-3320-42CD-801D-94CAFBC0B775}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="195" windowWidth="12600" windowHeight="10575" xr2:uid="{A0A311D1-AE87-414F-9943-F6EE8A23C016}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{A0A311D1-AE87-414F-9943-F6EE8A23C016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -168,57 +168,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -534,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6106D9BA-E067-42B4-BA26-767005EB48E1}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BlackjackAI.xlsx
+++ b/BlackjackAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Jokers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F6D247-9360-494F-98AA-E1337B167A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B248F8E-E5FF-4852-9DC9-9CC0EBA0B438}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A0A311D1-AE87-414F-9943-F6EE8A23C016}"/>
   </bookViews>
@@ -704,14 +704,14 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="12" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
